--- a/uploads/temp.xlsx
+++ b/uploads/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonter\Documents\workspaces\Web-Forensic\The-Real-API\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616830-6E13-47AB-86C8-7B22ED46F56C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B92467-6167-4ACC-B4FC-BF75ED0DD793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9EFF0D50-5A4D-416F-8B2A-F38FD4951C08}"/>
   </bookViews>
@@ -30,30 +30,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
   <si>
     <t>THAILAND</t>
   </si>
   <si>
-    <t>0123G</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>thai</t>
+    <t>D10S1248</t>
+  </si>
+  <si>
+    <t>D12S391</t>
+  </si>
+  <si>
+    <t>D16S539</t>
+  </si>
+  <si>
+    <t>D18S51</t>
+  </si>
+  <si>
+    <t>D19S433</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>l;</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>wq</t>
   </si>
 </sst>
 </file>
@@ -405,50 +435,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19A1F8-175A-4358-913F-62A3A7235594}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2016</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>1234812371</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
